--- a/Python/tables/3_selected_users.xlsx
+++ b/Python/tables/3_selected_users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="467">
   <si>
     <t>user_id</t>
   </si>
@@ -28,9 +28,6 @@
     <t>100280852</t>
   </si>
   <si>
-    <t>106036152</t>
-  </si>
-  <si>
     <t>11025592</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>1327337976</t>
   </si>
   <si>
-    <t>1356568904</t>
-  </si>
-  <si>
     <t>1397462048</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>2286422184</t>
   </si>
   <si>
-    <t>230403822</t>
-  </si>
-  <si>
     <t>236050524</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>2412794966</t>
   </si>
   <si>
-    <t>2416199407</t>
-  </si>
-  <si>
     <t>243456080</t>
   </si>
   <si>
@@ -400,9 +388,6 @@
     <t>697061735593811968</t>
   </si>
   <si>
-    <t>710536251666010112</t>
-  </si>
-  <si>
     <t>73328095</t>
   </si>
   <si>
@@ -445,9 +430,6 @@
     <t>8258432</t>
   </si>
   <si>
-    <t>83324697</t>
-  </si>
-  <si>
     <t>841313422755037184</t>
   </si>
   <si>
@@ -511,9 +493,6 @@
     <t>rodrigo santana</t>
   </si>
   <si>
-    <t xml:space="preserve">eduardo elua  </t>
-  </si>
-  <si>
     <t>miguel perez alvarez</t>
   </si>
   <si>
@@ -550,9 +529,6 @@
     <t>beatriz pacheco</t>
   </si>
   <si>
-    <t>startup burgos</t>
-  </si>
-  <si>
     <t>angel fernandez</t>
   </si>
   <si>
@@ -658,9 +634,6 @@
     <t>jorge</t>
   </si>
   <si>
-    <t>andy sugden</t>
-  </si>
-  <si>
     <t>eva</t>
   </si>
   <si>
@@ -670,9 +643,6 @@
     <t>carlos fdzvillaverde</t>
   </si>
   <si>
-    <t>alex barreto</t>
-  </si>
-  <si>
     <t>jose</t>
   </si>
   <si>
@@ -883,9 +853,6 @@
     <t>monica cabanillas</t>
   </si>
   <si>
-    <t>salud big data</t>
-  </si>
-  <si>
     <t>aitor moreno</t>
   </si>
   <si>
@@ -928,9 +895,6 @@
     <t>nabor garrido valle</t>
   </si>
   <si>
-    <t>fernando cuenca</t>
-  </si>
-  <si>
     <t>learn python</t>
   </si>
   <si>
@@ -991,9 +955,6 @@
     <t>rodrigofs10</t>
   </si>
   <si>
-    <t>eelua</t>
-  </si>
-  <si>
     <t>Maperez324</t>
   </si>
   <si>
@@ -1030,9 +991,6 @@
     <t>beatyesth</t>
   </si>
   <si>
-    <t>StartupBurgos</t>
-  </si>
-  <si>
     <t>afercuello</t>
   </si>
   <si>
@@ -1138,9 +1096,6 @@
     <t>jorgeprg97</t>
   </si>
   <si>
-    <t>AndySugs</t>
-  </si>
-  <si>
     <t>MissHu</t>
   </si>
   <si>
@@ -1150,9 +1105,6 @@
     <t>C_FVillaverde</t>
   </si>
   <si>
-    <t>shakamunyi</t>
-  </si>
-  <si>
     <t>JoseCapel</t>
   </si>
   <si>
@@ -1363,9 +1315,6 @@
     <t>moncabacas</t>
   </si>
   <si>
-    <t>SaludBigData</t>
-  </si>
-  <si>
     <t>aitmoreno</t>
   </si>
   <si>
@@ -1406,9 +1355,6 @@
   </si>
   <si>
     <t>NaborGarrido</t>
-  </si>
-  <si>
-    <t>fernandocuenca</t>
   </si>
   <si>
     <t>learn_pythonx</t>
@@ -1826,7 +1772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,10 +1797,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1865,10 +1811,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1879,10 +1825,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1893,10 +1839,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1907,10 +1853,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1921,10 +1867,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1935,10 +1881,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1949,10 +1895,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1963,10 +1909,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1977,10 +1923,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1991,10 +1937,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2005,10 +1951,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2019,10 +1965,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2033,10 +1979,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2047,10 +1993,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2061,10 +2007,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2075,10 +2021,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2089,10 +2035,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2103,10 +2049,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2117,10 +2063,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2131,10 +2077,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2145,10 +2091,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2159,10 +2105,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2173,10 +2119,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2187,10 +2133,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2201,10 +2147,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2215,10 +2161,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2229,10 +2175,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2243,10 +2189,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2257,10 +2203,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2271,10 +2217,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2285,10 +2231,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2299,10 +2245,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2313,10 +2259,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2327,10 +2273,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2341,10 +2287,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2355,10 +2301,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2369,10 +2315,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2383,10 +2329,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2397,10 +2343,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2411,10 +2357,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2425,10 +2371,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2439,10 +2385,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2453,10 +2399,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2467,10 +2413,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D46" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2481,10 +2427,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2495,10 +2441,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2509,10 +2455,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2523,10 +2469,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2537,10 +2483,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2551,10 +2497,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D52" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2565,10 +2511,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D53" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2579,10 +2525,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2593,10 +2539,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2607,10 +2553,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2621,10 +2567,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2635,10 +2581,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D58" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2649,10 +2595,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D59" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2663,10 +2609,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2677,10 +2623,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2691,10 +2637,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D62" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2705,10 +2651,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2719,10 +2665,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D64" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2733,10 +2679,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D65" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2747,10 +2693,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D66" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2761,10 +2707,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2775,10 +2721,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D68" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2789,10 +2735,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D69" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2803,10 +2749,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D70" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2817,10 +2763,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D71" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2831,10 +2777,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2845,10 +2791,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D73" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2859,10 +2805,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2873,10 +2819,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D75" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2887,10 +2833,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D76" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2901,10 +2847,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2915,10 +2861,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2929,10 +2875,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D79" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2943,10 +2889,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D80" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2957,10 +2903,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D81" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2971,10 +2917,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D82" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2985,10 +2931,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2999,10 +2945,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3013,10 +2959,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3027,10 +2973,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D86" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3041,10 +2987,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D87" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3055,10 +3001,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D88" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3069,10 +3015,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D89" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3083,10 +3029,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D90" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3097,10 +3043,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D91" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3111,10 +3057,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D92" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3125,10 +3071,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D93" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3139,10 +3085,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D94" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3153,10 +3099,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D95" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3167,10 +3113,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3181,10 +3127,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D97" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3195,10 +3141,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3209,10 +3155,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D99" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3223,10 +3169,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D100" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3237,10 +3183,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D101" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3251,10 +3197,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D102" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3265,10 +3211,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D103" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3279,10 +3225,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D104" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3293,10 +3239,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D105" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3307,10 +3253,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D106" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3321,10 +3267,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D107" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3335,10 +3281,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D108" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3349,10 +3295,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D109" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3363,10 +3309,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D110" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3377,10 +3323,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D111" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3391,10 +3337,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D112" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3405,10 +3351,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D113" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3419,10 +3365,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D114" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3433,10 +3379,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D115" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3447,10 +3393,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D116" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3461,10 +3407,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D117" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3475,10 +3421,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D118" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3489,10 +3435,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D119" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3503,10 +3449,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D120" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3517,10 +3463,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D121" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3531,10 +3477,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D122" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3545,10 +3491,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D123" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3559,10 +3505,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D124" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3573,10 +3519,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D125" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3587,10 +3533,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D126" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3601,10 +3547,10 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D127" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3615,10 +3561,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D128" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3629,10 +3575,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D129" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3643,10 +3589,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D130" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3657,10 +3603,10 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D131" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3671,10 +3617,10 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D132" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3685,10 +3631,10 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D133" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3699,10 +3645,10 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D134" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3713,10 +3659,10 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D135" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3727,10 +3673,10 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D136" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3741,10 +3687,10 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D137" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3755,10 +3701,10 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D138" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3769,10 +3715,10 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D139" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3783,10 +3729,10 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D140" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3797,10 +3743,10 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D141" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3811,10 +3757,10 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D142" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3825,10 +3771,10 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D143" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3839,10 +3785,10 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D144" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3853,10 +3799,10 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D145" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3867,10 +3813,10 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D146" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3881,10 +3827,10 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D147" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3895,10 +3841,10 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D148" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3909,10 +3855,10 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D149" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3923,10 +3869,10 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D150" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3937,10 +3883,10 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D151" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3951,10 +3897,10 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D152" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3965,10 +3911,10 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D153" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3979,10 +3925,10 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D154" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3993,10 +3939,10 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D155" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4007,94 +3953,10 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D156" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>158</v>
-      </c>
-      <c r="C157" t="s">
-        <v>318</v>
-      </c>
-      <c r="D157" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>159</v>
-      </c>
-      <c r="C158" t="s">
-        <v>319</v>
-      </c>
-      <c r="D158" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>160</v>
-      </c>
-      <c r="C159" t="s">
-        <v>320</v>
-      </c>
-      <c r="D159" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>161</v>
-      </c>
-      <c r="C160" t="s">
-        <v>321</v>
-      </c>
-      <c r="D160" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" t="s">
-        <v>322</v>
-      </c>
-      <c r="D161" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>163</v>
-      </c>
-      <c r="C162" t="s">
-        <v>323</v>
-      </c>
-      <c r="D162" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
